--- a/data/income_statement/2digits/size/50_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/50_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>50-Water transport</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>50-Water transport</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,314 +841,354 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1566307.89908</v>
+        <v>1830251.6088</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2052945.56115</v>
+        <v>2458019.56343</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1936027.74858</v>
+        <v>2475599.19095</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1945866.95206</v>
+        <v>2395615.59959</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2630620.66773</v>
+        <v>2970500.42066</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2439358.45531</v>
+        <v>2603681.48986</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2309504.64128</v>
+        <v>2652406.13598</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2333844.12935</v>
+        <v>2790959.28436</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2394130.73259</v>
+        <v>2885244.90033</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>5825786.872660001</v>
+        <v>6026173.59129</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7655030.08607</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8073781.837619999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>8445980.876</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>581435.41941</v>
+        <v>610275.4741799999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>870242.28695</v>
+        <v>934806.88823</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>852484.16541</v>
+        <v>896819.1352</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>891918.47799</v>
+        <v>991578.21531</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1195713.37546</v>
+        <v>1294711.7191</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1261228.95547</v>
+        <v>1340993.15615</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1105617.57989</v>
+        <v>1298786.07613</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1269625.45165</v>
+        <v>1522222.00975</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1096694.45958</v>
+        <v>1330243.36659</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2901609.90891</v>
+        <v>3028251.01885</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3783128.21903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4180467.03594</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4246870.671</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>961569.325</v>
+        <v>1196153.65327</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1141949.99323</v>
+        <v>1482226.84442</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1052817.43814</v>
+        <v>1512180.03539</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1017715.16098</v>
+        <v>1354918.52971</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1397391.06689</v>
+        <v>1629409.57379</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1128339.38238</v>
+        <v>1200383.6231</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1148968.36843</v>
+        <v>1284318.04143</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1006823.68475</v>
+        <v>1203251.8827</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1235113.06083</v>
+        <v>1442646.8687</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2832941.05593</v>
+        <v>2908521.9554</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3716542.87397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3744634.55355</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3979296.21</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>23303.15467</v>
+        <v>23822.48135</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>40753.28097</v>
+        <v>40985.83078</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>30726.14503</v>
+        <v>66600.02035999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>36233.31309</v>
+        <v>49118.85457</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>37516.22538</v>
+        <v>46379.12777</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>49790.11746</v>
+        <v>62304.71061</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>54918.69296</v>
+        <v>69302.01842000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>57394.99295</v>
+        <v>65485.39191000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>62323.21218</v>
+        <v>112354.66504</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>91235.90782000001</v>
+        <v>89400.61704000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>155358.99307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>148680.24813</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>219813.995</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>4623.96259</v>
+        <v>5025.415550000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>4626.42708</v>
+        <v>9125.807600000002</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>24631.40963</v>
+        <v>26177.67164</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4337.867439999999</v>
+        <v>6133.909659999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>10858.21962</v>
+        <v>15057.71814</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>11697.33917</v>
+        <v>13501.89953</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>44013.17459</v>
+        <v>47597.58858</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>18933.86294</v>
+        <v>32700.07086</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>16014.71522</v>
+        <v>33107.17215000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>74035.83759000001</v>
+        <v>124711.5519</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>63188.68227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>100310.39442</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>135695.708</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3882.56675</v>
+        <v>4363.34567</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>3882.04405</v>
+        <v>4467.29076</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>22829.68491</v>
+        <v>21639.77159</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3566.80799</v>
+        <v>4048.8747</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>7733.97032</v>
+        <v>10394.82577</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>8040.989799999999</v>
+        <v>8848.82214</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>42414.31968</v>
+        <v>44624.81570000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>18183.19021</v>
+        <v>27374.53919</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>15098.24303</v>
+        <v>29230.01626</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>70331.91056</v>
+        <v>120595.26852</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>57222.92320999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>92974.83353999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>117457.857</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>249.35663</v>
+        <v>310.73703</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>104.6786</v>
+        <v>85.19559999999998</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>164.72054</v>
+        <v>602.79668</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>186.30774</v>
+        <v>98.74126999999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>414.72084</v>
+        <v>832.17756</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>157.79228</v>
+        <v>816.94562</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>252.52614</v>
+        <v>1346.17626</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>487.78169</v>
+        <v>5071.82692</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>681.4035700000001</v>
+        <v>3637.66687</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3346.26857</v>
+        <v>3758.62492</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5891.98873</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>7261.79055</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>17479.923</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>492.03921</v>
+        <v>351.33285</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>639.7044299999999</v>
+        <v>4573.32124</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1637.00418</v>
+        <v>3935.10337</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>584.7517100000001</v>
+        <v>1986.29369</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2709.52846</v>
+        <v>3830.71481</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>3498.55709</v>
+        <v>3836.13177</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1346.32877</v>
+        <v>1626.59662</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>262.89104</v>
+        <v>253.70475</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>235.06862</v>
+        <v>239.48902</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>357.65846</v>
@@ -1255,341 +1196,386 @@
       <c r="M12" s="48" t="n">
         <v>73.77033</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>757.928</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1561683.93649</v>
+        <v>1825226.19325</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2048319.13407</v>
+        <v>2448893.75583</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1911396.33895</v>
+        <v>2449421.51931</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1941529.08462</v>
+        <v>2389481.68993</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2619762.44811</v>
+        <v>2955442.70252</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2427661.11614</v>
+        <v>2590179.59033</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2265491.46669</v>
+        <v>2604808.5474</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2314910.26641</v>
+        <v>2758259.2135</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2378116.01737</v>
+        <v>2852137.72818</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5751751.035069999</v>
+        <v>5901462.039390001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7591841.4038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7973471.4432</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>8310285.168</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1399666.2749</v>
+        <v>1592021.58803</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1782260.18201</v>
+        <v>2125407.60121</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1658712.91298</v>
+        <v>2099971.1632</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1696564.89305</v>
+        <v>2094687.27042</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2306866.871</v>
+        <v>2574913.82812</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2128031.91378</v>
+        <v>2242969.32757</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1926108.07918</v>
+        <v>2161065.66713</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1920682.74414</v>
+        <v>2215705.0711</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1921704.76368</v>
+        <v>2190885.19867</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4623788.55929</v>
+        <v>4573864.10041</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6437427.396600001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6553844.962679999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6774271.56</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2565.46162</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>7346.127860000001</v>
+        <v>7411.81808</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>0</v>
+        <v>70.06967999999999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1365.93149</v>
+        <v>23410.89957</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>51666.46808</v>
+        <v>51611.68308</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2444.41602</v>
+        <v>345.6635</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>18699.2335</v>
+        <v>18188.05412</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4832.346600000001</v>
+        <v>1234.58685</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>48105.24815</v>
+        <v>32477.50077</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>512.4192099999999</v>
+        <v>510.15266</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>13084.52913</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>18.648</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>80204.996</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>55395.05432</v>
+        <v>65528.3716</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>53767.69336</v>
+        <v>65944.80465000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>28713.43668</v>
+        <v>24015.6825</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>26166.74525</v>
+        <v>27028.01242</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>62990.44654</v>
+        <v>56541.56366</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>73961.88288</v>
+        <v>67465.85003</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>249528.67746</v>
+        <v>242951.13588</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>60724.86943</v>
+        <v>56533.05216</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>87876.00886</v>
+        <v>69633.38664</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>296856.55843</v>
+        <v>275233.04058</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>541426.98832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>508755.009</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>832026.965</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1316341.89585</v>
+        <v>1497953.6617</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1700203.61973</v>
+        <v>2031214.49473</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1621997.87973</v>
+        <v>2049912.15264</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1615362.07325</v>
+        <v>1991043.22101</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2174678.09728</v>
+        <v>2410548.1295</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2035561.99727</v>
+        <v>2158633.00377</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1641858.15401</v>
+        <v>1884386.87112</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1843793.16161</v>
+        <v>2146222.97864</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1774282.03834</v>
+        <v>2073314.37361</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4302298.968640001</v>
+        <v>4273971.08847</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5849303.92513</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6011246.9489</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>5811582.486</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>25363.86311</v>
+        <v>25974.09311</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>20942.74106</v>
+        <v>20836.48375</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>8001.596570000001</v>
+        <v>25973.25838</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>53670.14306</v>
+        <v>53205.13742</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>17531.8591</v>
+        <v>56212.45188</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>16063.61761</v>
+        <v>16524.81027</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>16022.01421</v>
+        <v>15539.60601</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>11332.3665</v>
+        <v>11714.45345</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>11441.46833</v>
+        <v>15459.93765</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>24120.61301</v>
+        <v>24149.8187</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>33611.95402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>33824.35678</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>50457.113</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>162017.66159</v>
+        <v>233204.60522</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>266058.95206</v>
+        <v>323486.15462</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>252683.42597</v>
+        <v>349450.35611</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>244964.19157</v>
+        <v>294794.41951</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>312895.57711</v>
+        <v>380528.8744</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>299629.20236</v>
+        <v>347210.26276</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>339383.38751</v>
+        <v>443742.88027</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>394227.52227</v>
+        <v>542554.1424</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>456411.25369</v>
+        <v>661252.52951</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1127962.47578</v>
+        <v>1327597.93898</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1154414.0072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1419626.48052</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1536013.608</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>143670.62647</v>
+        <v>188751.1074</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>140855.20709</v>
+        <v>137164.3928</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>133222.87175</v>
+        <v>149808.95222</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>138929.6268</v>
+        <v>160251.38164</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>188986.20521</v>
+        <v>242145.55101</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>177843.72166</v>
+        <v>185823.6334</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>182092.51285</v>
+        <v>187644.12327</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>198355.62809</v>
+        <v>180973.20168</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>208022.73981</v>
+        <v>188069.47085</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>347383.58337</v>
+        <v>334965.11969</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>433326.41249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>438297.7043099999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>378283.584</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1.61272</v>
+        <v>0</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>76.73997</v>
+        <v>3.28476</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>59.65696999999999</v>
+        <v>60.70612999999999</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>6.13802</v>
+        <v>0</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>997.4873</v>
@@ -1606,464 +1592,524 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>5133.93</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>11516.99602</v>
+        <v>51401.5625</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>11336.64405</v>
+        <v>10053.57845</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>13949.33672</v>
+        <v>27153.38947</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>13362.66399</v>
+        <v>28364.22695</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>11931.14223</v>
+        <v>53842.81082999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>16905.05324</v>
+        <v>29223.92441</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>10197.5226</v>
+        <v>25393.83826</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>11507.86721</v>
+        <v>9185.420259999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>17850.72126</v>
+        <v>15436.56515</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>32863.61624</v>
+        <v>48948.91156</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>34358.49643</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>52514.02009</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>44540.801</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>132153.63045</v>
+        <v>137349.5449</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>129516.95032</v>
+        <v>127110.81435</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>119196.79506</v>
+        <v>122652.27799</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>125507.30584</v>
+        <v>131826.44856</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>177055.06298</v>
+        <v>188302.74018</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>160932.5304</v>
+        <v>156599.70899</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>170897.50295</v>
+        <v>161252.79771</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>186847.76088</v>
+        <v>171787.78142</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>190171.46201</v>
+        <v>172632.34916</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>314519.96713</v>
+        <v>286016.20813</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>398967.91606</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>385783.6842200001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>328608.853</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>18347.03512</v>
+        <v>44453.49782</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>125203.74497</v>
+        <v>186321.76182</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>119460.55422</v>
+        <v>199641.40389</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>106034.56477</v>
+        <v>134543.03787</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>123909.3719</v>
+        <v>138383.32339</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>121785.4807</v>
+        <v>161386.62936</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>157290.87466</v>
+        <v>256098.757</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>195871.89418</v>
+        <v>361580.94072</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>248388.51388</v>
+        <v>473183.05866</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>780578.8924100001</v>
+        <v>992632.81929</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>721087.5947100001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>981328.77621</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1157730.024</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>213855.62081</v>
+        <v>350735.05269</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>182195.10411</v>
+        <v>263368.22271</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>214416.42117</v>
+        <v>309055.4108</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>157112.97218</v>
+        <v>327045.90397</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>266282.79706</v>
+        <v>385442.7665200001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>276016.68771</v>
+        <v>440736.76288</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>338836.03866</v>
+        <v>448745.90046</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>334094.11118</v>
+        <v>373657.49982</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>359073.70607</v>
+        <v>370519.25268</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1487799.46385</v>
+        <v>1167022.36672</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>931381.1958300001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1166661.58927</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1536925.157</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2477.07719</v>
+        <v>2382.59074</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>3189.8134</v>
+        <v>2191.54484</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2908.36675</v>
+        <v>26233.34974</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>16993.89166</v>
+        <v>41982.8867</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>7318.07177</v>
+        <v>4263.022809999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>3833.93453</v>
+        <v>5292.04308</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2147.20178</v>
+        <v>1370.79012</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>14057.48556</v>
+        <v>6108.053650000001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>84243.58675</v>
+        <v>7733.77655</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>61192.84845</v>
+        <v>155.69158</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>22440.05105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>22320.54254</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1912.212</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>2744.779</v>
+        <v>164.93966</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>306.8498</v>
+        <v>1288.49657</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>2858.56994</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>660.1882800000001</v>
+        <v>528.95568</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>4248.24079</v>
+        <v>18604.53956</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>113.01948</v>
+        <v>15074.96484</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1533.25064</v>
+        <v>47877.48153</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>2850.5711</v>
+        <v>1073.23616</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>2635.71005</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>49745.30226</v>
+        <v>73278.95884000001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>78685.93879</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>144764.60179</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>24299.702</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>15143.46265</v>
+        <v>24295.17534</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>13823.50512</v>
+        <v>27549.64133</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>13949.72009</v>
+        <v>17779.71734</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>14309.0881</v>
+        <v>22760.91021</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>18177.1009</v>
+        <v>34043.2024</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>25222.36593</v>
+        <v>31352.31543</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>20144.21383</v>
+        <v>23334.35428</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>21318.63986</v>
+        <v>26853.30903</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>21805.27059</v>
+        <v>30528.89665999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>62846.94198</v>
+        <v>66424.76723</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>75262.17590999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>49652.15441999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>51713.941</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>3895.25762</v>
+        <v>1315.65912</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1295.41057</v>
+        <v>1816.69929</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>66.08467999999999</v>
+        <v>590.40691</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1279.45069</v>
+        <v>1590.8456</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1789.20056</v>
+        <v>1855.75128</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>613.84887</v>
+        <v>2142.29465</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>324.5304</v>
+        <v>1673.16342</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3866.12722</v>
+        <v>294.55053</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>7070.71536</v>
+        <v>15651.64067</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>391.4518</v>
+        <v>370.59291</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>7061.597229999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>179.25863</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>161.579</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>464.37717</v>
+        <v>1474.56303</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>370.4533</v>
+        <v>587.6828399999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>787.7999100000001</v>
+        <v>631.35073</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>30.92842</v>
+        <v>274.04178</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>560.76283</v>
+        <v>431.3461399999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2726.79637</v>
+        <v>531.44032</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>932.2891999999999</v>
+        <v>397.29494</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>593.1641500000001</v>
+        <v>878.9759</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>652.78314</v>
+        <v>654.5532099999999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1596.29316</v>
+        <v>1596.29301</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1951.18924</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2014.16748</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2975.425</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1240.94558</v>
+        <v>6003.82367</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>764.96929</v>
+        <v>536.69458</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>220.9726</v>
+        <v>191.64624</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1778.11785</v>
+        <v>1152.11734</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1576.26708</v>
+        <v>708.4526</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>7277.36315</v>
+        <v>3500.59711</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>73.49073</v>
+        <v>3588.06316</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>97.70434</v>
+        <v>603.00357</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>111.1668</v>
+        <v>282.42198</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>6128.4968</v>
+        <v>21.19113</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3749.63893</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>30.07534</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1296.947</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>172434.46107</v>
+        <v>295443.15235</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>153492.28077</v>
+        <v>219418.27839</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>176865.17653</v>
+        <v>247610.44788</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>111718.76373</v>
+        <v>246237.55669</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>208816.00361</v>
+        <v>307598.1233</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>209156.88348</v>
+        <v>350568.65875</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>301050.56663</v>
+        <v>348708.50517</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>276923.82378</v>
+        <v>318316.29959</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>218855.98402</v>
+        <v>289954.3704600001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1275667.10661</v>
+        <v>994271.51624</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>643536.69781</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>775819.3759499999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1275680.652</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>235.64579</v>
+        <v>231.44579</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>7.55523</v>
+        <v>5.83678</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>133.74646</v>
+        <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>620.2164200000001</v>
+        <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>195.36453</v>
+        <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>10.70551</v>
+        <v>0</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1.7128</v>
@@ -2102,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>43.29242</v>
+        <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>0</v>
@@ -2113,191 +2164,216 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>15217.90194</v>
+        <v>19421.99019</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>8951.82186</v>
+        <v>9979.184869999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>16752.17544</v>
+        <v>13154.08524</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>10208.79699</v>
+        <v>12518.58997</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>23797.14952</v>
+        <v>17938.32843</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>26452.25948</v>
+        <v>32274.4487</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>12435.13092</v>
+        <v>21796.24784</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>14332.59724</v>
+        <v>19530.07139</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>26334.19941</v>
+        <v>23077.8831</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>29995.11234</v>
+        <v>30667.44533</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>98693.90687000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>171881.41312</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>178884.699</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>166898.25563</v>
+        <v>242675.86355</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>163071.38829</v>
+        <v>207662.12947</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>217980.63862</v>
+        <v>381078.74082</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>94732.91615999999</v>
+        <v>162402.88022</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>268200.85318</v>
+        <v>427434.14409</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>228371.72755</v>
+        <v>397766.50218</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>334855.7439000001</v>
+        <v>430966.07513</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>271924.91661</v>
+        <v>351765.93343</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>216726.2879</v>
+        <v>289930.93297</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1273932.49768</v>
+        <v>908204.8414400001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>699124.83634</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>916551.3363599998</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1374693.823</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2039.35877</v>
+        <v>2348.9742</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2489.65927</v>
+        <v>2242.14548</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1082.56439</v>
+        <v>2546.97982</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1579.56162</v>
+        <v>2820.72137</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2772.70003</v>
+        <v>2844.29787</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2271.5358</v>
+        <v>3982.19576</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1145.32963</v>
+        <v>1008.88829</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1206.12521</v>
+        <v>2021.17163</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2208.82136</v>
+        <v>1638.61707</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3809.63522</v>
+        <v>3872.23311</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1623.02602</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1654.18432</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1359.927</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1347.11569</v>
+        <v>2902.11206</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1270.23613</v>
+        <v>1160.36813</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2408.6636</v>
+        <v>2631.94982</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2516.99564</v>
+        <v>3130.22378</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1719.54174</v>
+        <v>1884.76456</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1815.84</v>
+        <v>2641.19105</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>2551.55423</v>
+        <v>3054.19424</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5216.84686</v>
+        <v>7631.69385</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3382.18159</v>
+        <v>5246.22353</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>12658.68512</v>
+        <v>13320.176</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>19055.43959</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>20370.05673</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>18064.972</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>234.7723</v>
+        <v>74.62742</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>204.0337</v>
+        <v>1059.62864</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>3374.13482</v>
+        <v>223.24545</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>367.62403</v>
+        <v>351.25845</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>837.79899</v>
+        <v>837.4626800000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0.04836</v>
+        <v>1.22936</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0</v>
+        <v>478.11507</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>5370.71243</v>
+        <v>632.9576999999999</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0</v>
@@ -2306,55 +2382,65 @@
         <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>427.86664</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>116.32222</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>212.062</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>142781.71439</v>
+        <v>226148.63214</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>144555.88213</v>
+        <v>188118.10419</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>195403.94574</v>
+        <v>361896.62893</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>86194.41664</v>
+        <v>152899.50373</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>237337.75044</v>
+        <v>417635.06158</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>216753.29449</v>
+        <v>379998.97805</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>316842.25696</v>
+        <v>415414.18672</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>254818.14324</v>
+        <v>336321.95495</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>200493.44686</v>
+        <v>274259.09564</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1244023.70262</v>
+        <v>880002.31858</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>629443.5649999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>730795.20314</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1313907.156</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0.88164</v>
+        <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
@@ -2372,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0.00022</v>
+        <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>103.88434</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0</v>
@@ -2384,13 +2470,18 @@
         <v>0</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>851.2031500000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2399,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>0.53316</v>
+        <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
@@ -2411,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>2135.55034</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>23.08311</v>
+        <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,386 +2516,436 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>20494.41284</v>
+        <v>11201.51773</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>14551.57706</v>
+        <v>15081.88303</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>15710.79691</v>
+        <v>13779.9368</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3726.53954</v>
+        <v>2853.3942</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>25533.06198</v>
+        <v>4232.557400000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7531.008900000001</v>
+        <v>11142.90796</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>12181.05252</v>
+        <v>11010.69081</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5313.08887</v>
+        <v>5054.27096</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>10618.75498</v>
+        <v>8786.996730000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>13440.47472</v>
+        <v>11010.11375</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>47723.73594</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>163615.56995</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>41149.706</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>73320.09901999999</v>
+        <v>138222.51378</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>68406.62074000001</v>
+        <v>130255.35876</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>95450.44112999999</v>
+        <v>218203.54372</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>90119.09828000001</v>
+        <v>89476.45573999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>121335.29965</v>
+        <v>193231.62108</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>97733.47190999999</v>
+        <v>148231.10037</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>141138.38606</v>
+        <v>261625.07369</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>156216.76199</v>
+        <v>271882.76132</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>134332.9828</v>
+        <v>269566.37659</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>377411.24438</v>
+        <v>342538.852</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>296421.73987</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>344272.6148400001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>411577.461</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>49613.83979999999</v>
+        <v>67511.96184999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>48516.19159</v>
+        <v>59342.84378</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>69325.61809999999</v>
+        <v>104024.87215</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>39580.80897999999</v>
+        <v>65751.7546</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>69588.07664</v>
+        <v>67147.30576</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>60445.26362000001</v>
+        <v>69090.86799</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>77858.06826</v>
+        <v>71481.28228</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>70394.09407000001</v>
+        <v>59198.2428</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>71560.17659</v>
+        <v>71598.37132000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>213094.22859</v>
+        <v>102621.3808</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>191256.17214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>113430.77799</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>81705.58199999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>23706.25922</v>
+        <v>70710.55193</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>19890.42915</v>
+        <v>70912.51498000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>26124.82303</v>
+        <v>114178.67157</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>50538.2893</v>
+        <v>23724.70114</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>51747.22301</v>
+        <v>126084.31532</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>37288.20829</v>
+        <v>79140.23238</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>63280.3178</v>
+        <v>190143.79141</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>85822.66792000001</v>
+        <v>212684.51852</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>62772.80621</v>
+        <v>197968.00527</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>164317.01579</v>
+        <v>239917.4712</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>105165.56773</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>230841.83685</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>329871.879</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-8015.698719999999</v>
+        <v>14290.17318</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>75920.84005</v>
+        <v>111772.4963</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>20445.89564</v>
+        <v>-90585.46984999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>78295.52251</v>
+        <v>209709.60588</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>656.0161300000027</v>
+        <v>-96839.67526</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>71696.96894999999</v>
+        <v>56125.78969</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>20132.78336</v>
+        <v>12253.50864</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>101824.32676</v>
+        <v>111589.74579</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>256402.94925</v>
+        <v>284205.00178</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>617034.6142</v>
+        <v>908911.49257</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>656922.21433</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>887166.41428</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>908383.897</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>77621.19190000001</v>
+        <v>65208.55734000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>58751.53169</v>
+        <v>29353.51056</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>48337.08122</v>
+        <v>96383.92401</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>49449.32471</v>
+        <v>39209.80343</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>87500.72289</v>
+        <v>156466.00279</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>88126.03472</v>
+        <v>38859.6388</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>49046.36783</v>
+        <v>57826.21014</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>58883.77009000001</v>
+        <v>68796.60385000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>43171.13036</v>
+        <v>98525.08981</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>42667.15606999999</v>
+        <v>53843.73915000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>147530.87367</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>221260.57034</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>82844.553</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1708.41859</v>
+        <v>1604.81063</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>723.5713000000001</v>
+        <v>1825.07897</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>501.95668</v>
+        <v>2025.81337</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>616.43251</v>
+        <v>788.91702</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>516.97777</v>
+        <v>913.37479</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>768.40073</v>
+        <v>1677.93579</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2662.96309</v>
+        <v>2086.44711</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>705.6103900000001</v>
+        <v>20219.73807</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>482.01147</v>
+        <v>1079.73517</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>709.8601600000001</v>
+        <v>2874.64342</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1075.87253</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1409.3553</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1503.233</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>75912.77331</v>
+        <v>63603.74671</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>58027.96039</v>
+        <v>27528.43159</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>47835.12454</v>
+        <v>94358.11064</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>48832.8922</v>
+        <v>38420.88641</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>86983.74512000001</v>
+        <v>155552.628</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>87357.63399000002</v>
+        <v>37181.70301</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>46383.40474000001</v>
+        <v>55739.76302999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>58178.1597</v>
+        <v>48576.86578</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>42689.11889</v>
+        <v>97445.35464000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>41957.29590999999</v>
+        <v>50969.09573</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>146455.00114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>219851.21504</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>81341.32000000001</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>21292.03038</v>
+        <v>31793.29641</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>83589.91554</v>
+        <v>70259.72223</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>193055.12529</v>
+        <v>199420.66485</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>102263.87695</v>
+        <v>37197.0873</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>75150.65406999999</v>
+        <v>34367.93811</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>131094.21809</v>
+        <v>66026.51587</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>76074.8034</v>
+        <v>46728.64647</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>182162.85319</v>
+        <v>153990.65415</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>45907.21378</v>
+        <v>133829.75673</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>126349.90378</v>
+        <v>52928.61321</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>46363.73868</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>39947.47252</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>49999.588</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2787.52785</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>3082.32964</v>
+        <v>410</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>2419.43293</v>
+        <v>328.05364</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2376.59654</v>
+        <v>1523.613</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1195.26262</v>
+        <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2004.54609</v>
+        <v>0</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1701.04918</v>
+        <v>12253.72699</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>788.63126</v>
+        <v>99.13301</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1180.45244</v>
+        <v>6168.862909999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2327.35079</v>
+        <v>15461.14127</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>25140.15345</v>
+        <v>5317.03839</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2164.92404</v>
+        <v>2076.62193</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2923.94124</v>
+        <v>2274.72638</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2256.4574</v>
+        <v>2707.69654</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2488.85796</v>
+        <v>6086.22444</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3210.36369</v>
+        <v>17947.49828</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3389.7673</v>
+        <v>6791.289220000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3281.00203</v>
+        <v>2594.52919</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6078.92904</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5601.49883</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3344.366</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>17324.05009</v>
+        <v>25624.4335</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>78180.23510999999</v>
+        <v>54388.58096</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>165495.53891</v>
+        <v>193775.57282</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>97722.35637000001</v>
+        <v>33596.85237</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>71031.45021</v>
+        <v>32093.21173</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>126833.2146</v>
+        <v>63318.81933000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>71884.89625999999</v>
+        <v>28388.69504</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>178163.85824</v>
+        <v>135944.02286</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>42517.44648</v>
+        <v>127038.46751</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>123068.90175</v>
+        <v>50334.08401999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>40284.80964</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>34345.97369</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>46655.222</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>48313.46279999999</v>
+        <v>47705.43411</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>51082.45619999999</v>
+        <v>70866.28463000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-124272.14843</v>
+        <v>-193622.21069</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>25480.97027</v>
+        <v>211722.32201</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>13006.08495</v>
+        <v>25258.38942</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>28728.78558</v>
+        <v>28958.91262</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-6895.652209999997</v>
+        <v>23351.07231</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-21454.75634</v>
+        <v>26395.69549</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>253666.86583</v>
+        <v>248900.33486</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>533351.86649</v>
+        <v>909826.6185099999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>758089.34932</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1068479.5121</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>941228.862</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6341.607720000001</v>
+        <v>8037.963400000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>8011.212939999999</v>
+        <v>9290.557780000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>10893.97242</v>
+        <v>12022.3848</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>8497.409509999999</v>
+        <v>8068.984600000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>19098.09895</v>
+        <v>19137.66063</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>11329.72466</v>
+        <v>9329.170300000002</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>12654.50285</v>
+        <v>14458.23798</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>18439.11408</v>
+        <v>18414.49898</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>12070.26734</v>
+        <v>9660.307500000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>44028.24662</v>
+        <v>47726.56246</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>54530.98606</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>48086.22867</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>54073.215</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>41971.85508</v>
+        <v>39667.47070999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>43071.24326</v>
+        <v>61575.72684999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-135166.12085</v>
+        <v>-205644.59549</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>16983.56076</v>
+        <v>203653.33741</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-6092.014</v>
+        <v>6120.728790000003</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>17399.06092</v>
+        <v>19629.74232</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-19550.15505999999</v>
+        <v>8892.834329999998</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-39893.87041999999</v>
+        <v>7981.19651</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>241596.59849</v>
+        <v>239240.02736</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>489323.61987</v>
+        <v>862100.0560499999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>703558.36326</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1020393.28343</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>887155.647</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>271</v>
+        <v>142</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>93</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>